--- a/artfynd/A 26334-2020.xlsx
+++ b/artfynd/A 26334-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,6 +1044,218 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112307840</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89049</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5734</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Druvfingersvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ramaria botrytis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Bourdot</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Hagalund, skogen norr, Adelsö, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>641395</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6585171</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Adelsö</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Hasse Andersson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Hasse Andersson, Birgit Svensson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112326188</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Hagalund, skogen norr, Adelsö, Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>641395</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6585171</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Adelsö</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Hasse Andersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Hasse Andersson, Birgit Svensson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 26334-2020.xlsx
+++ b/artfynd/A 26334-2020.xlsx
@@ -1049,7 +1049,7 @@
         <v>112307840</v>
       </c>
       <c r="B5" t="n">
-        <v>89049</v>
+        <v>89063</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>112326188</v>
       </c>
       <c r="B6" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
